--- a/controller/src/main/resources/jxls_templates/feiyongtongji.xlsx
+++ b/controller/src/main/resources/jxls_templates/feiyongtongji.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ying/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,11 +14,8 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="14">
   <si>
     <t>基本情報</t>
   </si>
@@ -80,6 +77,10 @@
   </si>
   <si>
     <t>委託単価・費用集計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -87,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -210,38 +211,38 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -253,6 +254,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -521,411 +525,471 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BO3"/>
+  <dimension ref="A1:CA3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:67" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:79" ht="18">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="2"/>
-      <c r="BC1" s="2"/>
-      <c r="BD1" s="2"/>
-      <c r="BE1" s="2"/>
-      <c r="BF1" s="2"/>
-      <c r="BG1" s="2"/>
-      <c r="BH1" s="2"/>
-      <c r="BI1" s="2"/>
-      <c r="BJ1" s="2"/>
-      <c r="BK1" s="2"/>
-      <c r="BL1" s="2"/>
-      <c r="BM1" s="2"/>
-      <c r="BN1" s="2"/>
-      <c r="BO1" s="2"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
+      <c r="AO1" s="12"/>
+      <c r="AP1" s="12"/>
+      <c r="AQ1" s="12"/>
+      <c r="AR1" s="12"/>
+      <c r="AS1" s="12"/>
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="12"/>
+      <c r="AV1" s="12"/>
+      <c r="AW1" s="12"/>
+      <c r="AX1" s="12"/>
+      <c r="AY1" s="12"/>
+      <c r="AZ1" s="12"/>
+      <c r="BA1" s="12"/>
+      <c r="BB1" s="12"/>
+      <c r="BC1" s="12"/>
+      <c r="BD1" s="12"/>
+      <c r="BE1" s="12"/>
+      <c r="BF1" s="12"/>
+      <c r="BG1" s="12"/>
+      <c r="BH1" s="12"/>
+      <c r="BI1" s="12"/>
+      <c r="BJ1" s="12"/>
+      <c r="BK1" s="12"/>
+      <c r="BL1" s="12"/>
+      <c r="BM1" s="12"/>
+      <c r="BN1" s="12"/>
+      <c r="BO1" s="12"/>
+      <c r="BP1" s="12"/>
+      <c r="BQ1" s="12"/>
+      <c r="BR1" s="12"/>
+      <c r="BS1" s="12"/>
+      <c r="BT1" s="12"/>
+      <c r="BU1" s="12"/>
+      <c r="BV1" s="12"/>
+      <c r="BW1" s="12"/>
+      <c r="BX1" s="12"/>
+      <c r="BY1" s="12"/>
+      <c r="BZ1" s="12"/>
+      <c r="CA1" s="12"/>
     </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="3">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="4">
-        <v>6</v>
-      </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4">
-        <v>7</v>
-      </c>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4">
+    <row r="2" spans="1:79">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="6">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6">
+        <v>5</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="7">
+        <v>6</v>
+      </c>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7">
+        <v>6</v>
+      </c>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7">
+        <v>7</v>
+      </c>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7">
         <v>8</v>
       </c>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4">
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7">
         <v>9</v>
       </c>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4">
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7">
         <v>9</v>
       </c>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4">
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7">
         <v>10</v>
       </c>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4">
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7">
         <v>11</v>
       </c>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="4">
+      <c r="AV2" s="7"/>
+      <c r="AW2" s="7"/>
+      <c r="AX2" s="7"/>
+      <c r="AY2" s="7"/>
+      <c r="AZ2" s="7">
         <v>12</v>
       </c>
-      <c r="AS2" s="4"/>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="4"/>
-      <c r="AV2" s="4">
+      <c r="BA2" s="7"/>
+      <c r="BB2" s="7"/>
+      <c r="BC2" s="7"/>
+      <c r="BD2" s="7"/>
+      <c r="BE2" s="7">
         <v>12</v>
       </c>
-      <c r="AW2" s="4"/>
-      <c r="AX2" s="4"/>
-      <c r="AY2" s="4"/>
-      <c r="AZ2" s="3">
+      <c r="BF2" s="7"/>
+      <c r="BG2" s="7"/>
+      <c r="BH2" s="7"/>
+      <c r="BI2" s="6">
         <v>1</v>
       </c>
-      <c r="BA2" s="3"/>
-      <c r="BB2" s="3"/>
-      <c r="BC2" s="3"/>
-      <c r="BD2" s="4">
+      <c r="BJ2" s="6"/>
+      <c r="BK2" s="6"/>
+      <c r="BL2" s="6"/>
+      <c r="BM2" s="6"/>
+      <c r="BN2" s="7">
         <v>2</v>
       </c>
-      <c r="BE2" s="4"/>
-      <c r="BF2" s="4"/>
-      <c r="BG2" s="4"/>
-      <c r="BH2" s="4">
+      <c r="BO2" s="7"/>
+      <c r="BP2" s="7"/>
+      <c r="BQ2" s="7"/>
+      <c r="BR2" s="7"/>
+      <c r="BS2" s="7">
         <v>3</v>
       </c>
-      <c r="BI2" s="4"/>
-      <c r="BJ2" s="4"/>
-      <c r="BK2" s="4"/>
-      <c r="BL2" s="4">
+      <c r="BT2" s="7"/>
+      <c r="BU2" s="7"/>
+      <c r="BV2" s="7"/>
+      <c r="BW2" s="7"/>
+      <c r="BX2" s="7">
         <v>3</v>
       </c>
-      <c r="BM2" s="4"/>
-      <c r="BN2" s="4"/>
-      <c r="BO2" s="4"/>
+      <c r="BY2" s="7"/>
+      <c r="BZ2" s="7"/>
+      <c r="CA2" s="7"/>
     </row>
-    <row r="3" spans="1:67" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:79" ht="27.95" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" s="6" t="s">
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="T3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="U3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="V3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF3" s="6" t="s">
+      <c r="W3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AG3" s="6" t="s">
+      <c r="AM3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AH3" s="5" t="s">
+      <c r="AN3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AI3" s="6" t="s">
+      <c r="AO3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AJ3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AL3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AR3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AS3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AT3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AU3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AV3" s="6" t="s">
+      <c r="AP3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BD3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AW3" s="6" t="s">
+      <c r="BF3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AX3" s="5" t="s">
+      <c r="BG3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AY3" s="6" t="s">
+      <c r="BH3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AZ3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="BA3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="BB3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="BC3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="BD3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="BE3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="BF3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="BG3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="BH3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="BI3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="BJ3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="BK3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="BL3" s="6" t="s">
+      <c r="BI3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BM3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BO3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BR3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BS3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BT3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BU3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BV3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BW3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BX3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="BM3" s="6" t="s">
+      <c r="BY3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="BN3" s="5" t="s">
+      <c r="BZ3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="BO3" s="6" t="s">
+      <c r="CA3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="AZ2:BC2"/>
-    <mergeCell ref="BD2:BG2"/>
-    <mergeCell ref="BH2:BK2"/>
-    <mergeCell ref="BL2:BO2"/>
+    <mergeCell ref="W2:AA2"/>
+    <mergeCell ref="AB2:AF2"/>
+    <mergeCell ref="BI2:BM2"/>
+    <mergeCell ref="BN2:BR2"/>
+    <mergeCell ref="BS2:BW2"/>
+    <mergeCell ref="BX2:CA2"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:BO1"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="AR2:AU2"/>
-    <mergeCell ref="AV2:AY2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="D1:CA1"/>
+    <mergeCell ref="AG2:AK2"/>
+    <mergeCell ref="AL2:AO2"/>
+    <mergeCell ref="AP2:AT2"/>
+    <mergeCell ref="AU2:AY2"/>
+    <mergeCell ref="AZ2:BD2"/>
+    <mergeCell ref="BE2:BH2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:V2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
